--- a/test/file.xlsx
+++ b/test/file.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFA8E8DB-8DB9-4F74-B6DC-66369D1982E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EB51A53-FBD2-4EC6-A8AA-3A29FF88D3AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="18000" windowHeight="9360" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
